--- a/oznake.xlsx
+++ b/oznake.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iva Barisic\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iva Barisic\PycharmProjects\ProjektIspiti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6916BD26-6FCA-4462-AC8A-AB8F2FABAB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB0C4F9-6DC6-4724-8C0D-A2BE9655D665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A820D6A6-2464-F04B-A23D-4141653B9303}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="867">
   <si>
     <t>oznaka</t>
   </si>
@@ -951,9 +951,6 @@
     <t>IMREŠKOVIĆ</t>
   </si>
   <si>
-    <t>00365112072</t>
-  </si>
-  <si>
     <t>CIPsharp_20210326_110903_0065</t>
   </si>
   <si>
@@ -2226,7 +2223,418 @@
     <t>0036911125</t>
   </si>
   <si>
-    <t>dontread</t>
+    <t>CIPsharp_20210326_111149_0041</t>
+  </si>
+  <si>
+    <t>Antonio</t>
+  </si>
+  <si>
+    <t>Antunović</t>
+  </si>
+  <si>
+    <t>0036565750</t>
+  </si>
+  <si>
+    <t>CIPsharp_20210326_111149_0042</t>
+  </si>
+  <si>
+    <t>CIPsharp_20210326_111149_0043</t>
+  </si>
+  <si>
+    <t>STELLA</t>
+  </si>
+  <si>
+    <t>BARTAKOVIĆ</t>
+  </si>
+  <si>
+    <t>0036852116</t>
+  </si>
+  <si>
+    <t>MIRKO</t>
+  </si>
+  <si>
+    <t>0036542819</t>
+  </si>
+  <si>
+    <t>CIPsharp_20210326_111149_0045</t>
+  </si>
+  <si>
+    <t>ŽELJANA</t>
+  </si>
+  <si>
+    <t>TUPKOVIĆ</t>
+  </si>
+  <si>
+    <t>0036896951</t>
+  </si>
+  <si>
+    <t>CIPsharp_20210326_111149_0046</t>
+  </si>
+  <si>
+    <t>KRAJIĆ</t>
+  </si>
+  <si>
+    <t>0054328210</t>
+  </si>
+  <si>
+    <t>CIPsharp_20210326_111149_0047</t>
+  </si>
+  <si>
+    <t>Višeslav</t>
+  </si>
+  <si>
+    <t>Pilić</t>
+  </si>
+  <si>
+    <t>0036534217</t>
+  </si>
+  <si>
+    <t>Lovro</t>
+  </si>
+  <si>
+    <t>Lovrić</t>
+  </si>
+  <si>
+    <t>5435435435</t>
+  </si>
+  <si>
+    <t>CIPsharp_20210326_111149_0049</t>
+  </si>
+  <si>
+    <t>321321213</t>
+  </si>
+  <si>
+    <t>CIPsharp_20210326_111149_0050</t>
+  </si>
+  <si>
+    <t>CIPsharp_20210326_111149_0052</t>
+  </si>
+  <si>
+    <t>CIPsharp_20210326_111149_0051</t>
+  </si>
+  <si>
+    <t>KARAJ</t>
+  </si>
+  <si>
+    <t>0036515546</t>
+  </si>
+  <si>
+    <t>CIPsharp_20210326_111149_0054</t>
+  </si>
+  <si>
+    <t>MARA</t>
+  </si>
+  <si>
+    <t>7777777777</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>CIPsharp_20210326_111149_0055</t>
+  </si>
+  <si>
+    <t>LARA</t>
+  </si>
+  <si>
+    <t>ANIĆ-MILIĆ</t>
+  </si>
+  <si>
+    <t>0038252971</t>
+  </si>
+  <si>
+    <t>CIPsharp_20210326_111149_0056</t>
+  </si>
+  <si>
+    <t>FRANJO</t>
+  </si>
+  <si>
+    <t>TUĐMAN</t>
+  </si>
+  <si>
+    <t>CIPsharp_20210326_111149_0057</t>
+  </si>
+  <si>
+    <t>0036515515</t>
+  </si>
+  <si>
+    <t>CIPsharp_20210326_111149_0058</t>
+  </si>
+  <si>
+    <t>GREBENAR</t>
+  </si>
+  <si>
+    <t>0036515712</t>
+  </si>
+  <si>
+    <t>CIPsharp_20210326_111149_0059</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>BANDERAS</t>
+  </si>
+  <si>
+    <t>0098610031</t>
+  </si>
+  <si>
+    <t>CIPsharp_20210326_111149_0060</t>
+  </si>
+  <si>
+    <t>FRANKOVIĆ</t>
+  </si>
+  <si>
+    <t>0001576634</t>
+  </si>
+  <si>
+    <t>CIPsharp_20210326_111149_0061</t>
+  </si>
+  <si>
+    <t>BANDUR</t>
+  </si>
+  <si>
+    <t>0036515390</t>
+  </si>
+  <si>
+    <t>CIPsharp_20210326_111149_0062</t>
+  </si>
+  <si>
+    <t>0012824567</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>CIPsharp_20210326_111149_0063</t>
+  </si>
+  <si>
+    <t>MARINKO</t>
+  </si>
+  <si>
+    <t>ĆUTUK</t>
+  </si>
+  <si>
+    <t>0062245834</t>
+  </si>
+  <si>
+    <t>CIPsharp_20210326_111149_0064</t>
+  </si>
+  <si>
+    <t>JAKOV</t>
+  </si>
+  <si>
+    <t>DRUMIĆ</t>
+  </si>
+  <si>
+    <t>0036515631</t>
+  </si>
+  <si>
+    <t>CIPsharp_20210326_111149_0065</t>
+  </si>
+  <si>
+    <t>MILE</t>
+  </si>
+  <si>
+    <t>0036516873</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>CIPsharp_20210326_111149_0066</t>
+  </si>
+  <si>
+    <t>NIKOLINA</t>
+  </si>
+  <si>
+    <t>BUDIMIR</t>
+  </si>
+  <si>
+    <t>0036522425</t>
+  </si>
+  <si>
+    <t>CIPsharp_20210326_111149_0067</t>
+  </si>
+  <si>
+    <t>KRISTINA</t>
+  </si>
+  <si>
+    <t>ČULE</t>
+  </si>
+  <si>
+    <t>0036515321</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>CIPsharp_20210326_111149_0068</t>
+  </si>
+  <si>
+    <t>REZUNOVIĆ</t>
+  </si>
+  <si>
+    <t>0036517253</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>CIPsharp_20210326_111149_0069</t>
+  </si>
+  <si>
+    <t>ANDRIĆ</t>
+  </si>
+  <si>
+    <t>0362577455</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>CIPsharp_20210326_111149_0070</t>
+  </si>
+  <si>
+    <t>MILIČEVIĆ</t>
+  </si>
+  <si>
+    <t>1248567210</t>
+  </si>
+  <si>
+    <t>CIPsharp_20210326_111149_0071</t>
+  </si>
+  <si>
+    <t>ĐUROĐURIĆ</t>
+  </si>
+  <si>
+    <t>ĐUREĆ</t>
+  </si>
+  <si>
+    <t>0096512348</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>CIPsharp_20210326_111149_0072</t>
+  </si>
+  <si>
+    <t>0012345649</t>
+  </si>
+  <si>
+    <t>CIPsharp_20210326_111149_0073</t>
+  </si>
+  <si>
+    <t>4281213428</t>
+  </si>
+  <si>
+    <t>CIPsharp_20210326_111149_0074</t>
+  </si>
+  <si>
+    <t>ĐURO</t>
+  </si>
+  <si>
+    <t>ĐURIĆ</t>
+  </si>
+  <si>
+    <t>CIPsharp_20210326_111149_0075</t>
+  </si>
+  <si>
+    <t>EMANUELA</t>
+  </si>
+  <si>
+    <t>MARIJANOVIĆ</t>
+  </si>
+  <si>
+    <t>0987654327</t>
+  </si>
+  <si>
+    <t>CIPsharp_20210326_111149_0076</t>
+  </si>
+  <si>
+    <t>MIHAEL</t>
+  </si>
+  <si>
+    <t>MIHAELIĆ</t>
+  </si>
+  <si>
+    <t>1234567899</t>
+  </si>
+  <si>
+    <t>CIPsharp_20210326_111149_0077</t>
+  </si>
+  <si>
+    <t>MARIJAN</t>
+  </si>
+  <si>
+    <t>ŽUTIĆ</t>
+  </si>
+  <si>
+    <t>6263123891</t>
+  </si>
+  <si>
+    <t>CIPsharp_20210326_111149_0078</t>
+  </si>
+  <si>
+    <t>MEDIĆ</t>
+  </si>
+  <si>
+    <t>0036360012</t>
+  </si>
+  <si>
+    <t>CIPsharp_20210326_111149_0079</t>
+  </si>
+  <si>
+    <t>MIRO</t>
+  </si>
+  <si>
+    <t>0036599999</t>
+  </si>
+  <si>
+    <t>CIPsharp_20210326_111149_0080</t>
+  </si>
+  <si>
+    <t>VADUN</t>
+  </si>
+  <si>
+    <t>0036476910</t>
+  </si>
+  <si>
+    <t>CIPsharp_20210326_111149_0081</t>
+  </si>
+  <si>
+    <t>FRANKA</t>
+  </si>
+  <si>
+    <t>0036567245</t>
+  </si>
+  <si>
+    <t>CIPsharp_20210326_111149_0082</t>
+  </si>
+  <si>
+    <t>GOLUB</t>
+  </si>
+  <si>
+    <t>2456781385</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>CIPsharp_20210326_111149_0083</t>
+  </si>
+  <si>
+    <t>ANIĆ</t>
+  </si>
+  <si>
+    <t>0036544428</t>
+  </si>
+  <si>
+    <t>0365112072</t>
+  </si>
+  <si>
+    <t>0036578932</t>
   </si>
 </sst>
 </file>
@@ -2268,13 +2676,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2591,10 +3002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE849B79-8956-3B4F-ACD5-B5F215607469}">
-  <dimension ref="A1:J193"/>
+  <dimension ref="A1:J233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="J122" sqref="J122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2610,7 +3021,7 @@
     <col min="9" max="9" width="11.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2638,11 +3049,8 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2665,7 +3073,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2688,7 +3096,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -2711,7 +3119,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -2734,7 +3142,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -2757,7 +3165,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -2780,7 +3188,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -2803,7 +3211,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -2826,7 +3234,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -2849,7 +3257,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -2872,7 +3280,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -2898,7 +3306,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -2921,7 +3329,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -2941,7 +3349,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>81</v>
       </c>
@@ -2961,7 +3369,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>86</v>
       </c>
@@ -4076,7 +4484,7 @@
         <v>304</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>305</v>
+        <v>865</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>37</v>
@@ -4090,16 +4498,16 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B65" t="s">
         <v>184</v>
       </c>
       <c r="D65" t="s">
+        <v>306</v>
+      </c>
+      <c r="F65" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>308</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>53</v>
@@ -4113,16 +4521,16 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B66" t="s">
         <v>309</v>
       </c>
-      <c r="B66" t="s">
+      <c r="D66" t="s">
         <v>310</v>
       </c>
-      <c r="D66" t="s">
+      <c r="F66" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>46</v>
@@ -4133,16 +4541,16 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B67" t="s">
         <v>33</v>
       </c>
       <c r="D67" t="s">
+        <v>313</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>64</v>
@@ -4150,16 +4558,16 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B68" t="s">
         <v>316</v>
       </c>
-      <c r="B68" t="s">
+      <c r="D68" t="s">
         <v>317</v>
       </c>
-      <c r="D68" t="s">
+      <c r="F68" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>319</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>76</v>
@@ -4167,16 +4575,16 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B69" t="s">
+        <v>316</v>
+      </c>
+      <c r="D69" t="s">
         <v>320</v>
       </c>
-      <c r="B69" t="s">
-        <v>317</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="F69" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>322</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>144</v>
@@ -4184,16 +4592,16 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B70" t="s">
         <v>323</v>
       </c>
-      <c r="B70" t="s">
+      <c r="D70" t="s">
         <v>324</v>
       </c>
-      <c r="D70" t="s">
+      <c r="F70" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>326</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>52</v>
@@ -4201,13 +4609,13 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B71" t="s">
         <v>327</v>
       </c>
-      <c r="B71" t="s">
+      <c r="D71" t="s">
         <v>328</v>
-      </c>
-      <c r="D71" t="s">
-        <v>329</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>129</v>
@@ -4221,7 +4629,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B72" t="s">
         <v>217</v>
@@ -4230,7 +4638,7 @@
         <v>61</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>145</v>
@@ -4241,16 +4649,16 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B73" t="s">
         <v>332</v>
       </c>
-      <c r="B73" t="s">
+      <c r="D73" t="s">
         <v>333</v>
       </c>
-      <c r="D73" t="s">
+      <c r="F73" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>335</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>14</v>
@@ -4264,16 +4672,16 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B74" t="s">
         <v>336</v>
       </c>
-      <c r="B74" t="s">
+      <c r="D74" t="s">
         <v>337</v>
       </c>
-      <c r="D74" t="s">
+      <c r="F74" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>339</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>53</v>
@@ -4287,16 +4695,16 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B75" t="s">
         <v>198</v>
       </c>
       <c r="D75" t="s">
+        <v>340</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>342</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>293</v>
@@ -4310,16 +4718,16 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B76" t="s">
         <v>343</v>
-      </c>
-      <c r="B76" t="s">
-        <v>344</v>
       </c>
       <c r="D76" t="s">
         <v>61</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>37</v>
@@ -4333,16 +4741,16 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B77" t="s">
         <v>346</v>
-      </c>
-      <c r="B77" t="s">
-        <v>347</v>
       </c>
       <c r="D77" t="s">
         <v>250</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>181</v>
@@ -4356,16 +4764,16 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B78" t="s">
         <v>349</v>
       </c>
-      <c r="B78" t="s">
+      <c r="D78" t="s">
         <v>350</v>
       </c>
-      <c r="D78" t="s">
+      <c r="F78" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>352</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>46</v>
@@ -4379,16 +4787,16 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B79" t="s">
         <v>353</v>
       </c>
-      <c r="B79" t="s">
+      <c r="D79" t="s">
         <v>354</v>
       </c>
-      <c r="D79" t="s">
+      <c r="F79" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>356</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>31</v>
@@ -4402,16 +4810,16 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B80" t="s">
         <v>357</v>
       </c>
-      <c r="B80" t="s">
+      <c r="D80" t="s">
+        <v>354</v>
+      </c>
+      <c r="F80" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="D80" t="s">
-        <v>355</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>359</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>187</v>
@@ -4425,7 +4833,7 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B81" t="s">
         <v>26</v>
@@ -4434,7 +4842,7 @@
         <v>300</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>37</v>
@@ -4448,16 +4856,16 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B82" t="s">
         <v>362</v>
       </c>
-      <c r="B82" t="s">
+      <c r="D82" t="s">
         <v>363</v>
       </c>
-      <c r="D82" t="s">
+      <c r="F82" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>365</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>75</v>
@@ -4468,16 +4876,16 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B83" t="s">
         <v>366</v>
       </c>
-      <c r="B83" t="s">
+      <c r="D83" t="s">
         <v>367</v>
       </c>
-      <c r="D83" t="s">
+      <c r="F83" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>369</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>145</v>
@@ -4488,16 +4896,16 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B84" t="s">
         <v>370</v>
-      </c>
-      <c r="B84" t="s">
-        <v>371</v>
       </c>
       <c r="D84" t="s">
         <v>300</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>144</v>
@@ -4511,16 +4919,16 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B85" t="s">
         <v>217</v>
       </c>
       <c r="D85" t="s">
+        <v>373</v>
+      </c>
+      <c r="F85" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>375</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>52</v>
@@ -4534,16 +4942,16 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B86" t="s">
         <v>376</v>
       </c>
-      <c r="B86" t="s">
+      <c r="D86" t="s">
         <v>377</v>
       </c>
-      <c r="D86" t="s">
+      <c r="F86" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>379</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>85</v>
@@ -4551,16 +4959,16 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B87" t="s">
         <v>33</v>
       </c>
       <c r="D87" t="s">
+        <v>380</v>
+      </c>
+      <c r="F87" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>99</v>
@@ -4568,16 +4976,16 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B88" t="s">
         <v>105</v>
       </c>
       <c r="D88" t="s">
+        <v>383</v>
+      </c>
+      <c r="F88" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>385</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>75</v>
@@ -4591,16 +4999,16 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B89" t="s">
         <v>386</v>
       </c>
-      <c r="B89" t="s">
+      <c r="D89" t="s">
         <v>387</v>
       </c>
-      <c r="D89" t="s">
+      <c r="F89" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>46</v>
@@ -4614,13 +5022,13 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B90" t="s">
         <v>390</v>
       </c>
-      <c r="B90" t="s">
+      <c r="D90" t="s">
         <v>391</v>
-      </c>
-      <c r="D90" t="s">
-        <v>392</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>12</v>
@@ -4637,16 +5045,16 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B91" t="s">
+        <v>390</v>
+      </c>
+      <c r="D91" t="s">
+        <v>391</v>
+      </c>
+      <c r="F91" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="B91" t="s">
-        <v>391</v>
-      </c>
-      <c r="D91" t="s">
-        <v>392</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>394</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>46</v>
@@ -4660,16 +5068,16 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B92" t="s">
         <v>26</v>
       </c>
       <c r="D92" t="s">
+        <v>395</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>293</v>
@@ -4683,16 +5091,16 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B93" t="s">
         <v>398</v>
-      </c>
-      <c r="B93" t="s">
-        <v>399</v>
       </c>
       <c r="D93" t="s">
         <v>277</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>75</v>
@@ -4706,16 +5114,16 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B94" t="s">
         <v>401</v>
       </c>
-      <c r="B94" t="s">
+      <c r="D94" t="s">
         <v>402</v>
       </c>
-      <c r="D94" t="s">
+      <c r="F94" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>404</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>75</v>
@@ -4729,13 +5137,13 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B95" t="s">
+        <v>376</v>
+      </c>
+      <c r="D95" t="s">
         <v>405</v>
-      </c>
-      <c r="B95" t="s">
-        <v>377</v>
-      </c>
-      <c r="D95" t="s">
-        <v>406</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>12</v>
@@ -4752,16 +5160,16 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B96" t="s">
         <v>407</v>
       </c>
-      <c r="B96" t="s">
+      <c r="D96" t="s">
         <v>408</v>
       </c>
-      <c r="D96" t="s">
+      <c r="F96" s="1" t="s">
         <v>409</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>410</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>31</v>
@@ -4772,16 +5180,16 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B97" t="s">
         <v>33</v>
       </c>
       <c r="D97" t="s">
+        <v>411</v>
+      </c>
+      <c r="F97" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>413</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>145</v>
@@ -4792,16 +5200,16 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B98" t="s">
         <v>414</v>
       </c>
-      <c r="B98" t="s">
+      <c r="D98" t="s">
         <v>415</v>
       </c>
-      <c r="D98" t="s">
+      <c r="F98" s="1" t="s">
         <v>416</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>417</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>145</v>
@@ -4812,16 +5220,16 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B99" t="s">
+        <v>349</v>
+      </c>
+      <c r="D99" t="s">
         <v>418</v>
       </c>
-      <c r="B99" t="s">
-        <v>350</v>
-      </c>
-      <c r="D99" t="s">
+      <c r="F99" s="1" t="s">
         <v>419</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>420</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>145</v>
@@ -4835,16 +5243,16 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B100" t="s">
+        <v>398</v>
+      </c>
+      <c r="D100" t="s">
         <v>421</v>
       </c>
-      <c r="B100" t="s">
-        <v>399</v>
-      </c>
-      <c r="D100" t="s">
+      <c r="F100" s="1" t="s">
         <v>422</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>423</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>53</v>
@@ -4858,16 +5266,16 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B101" t="s">
+        <v>349</v>
+      </c>
+      <c r="D101" t="s">
+        <v>350</v>
+      </c>
+      <c r="F101" s="1" t="s">
         <v>424</v>
-      </c>
-      <c r="B101" t="s">
-        <v>350</v>
-      </c>
-      <c r="D101" t="s">
-        <v>351</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>425</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>46</v>
@@ -4881,16 +5289,16 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B102" t="s">
+        <v>407</v>
+      </c>
+      <c r="D102" t="s">
+        <v>408</v>
+      </c>
+      <c r="F102" s="1" t="s">
         <v>426</v>
-      </c>
-      <c r="B102" t="s">
-        <v>408</v>
-      </c>
-      <c r="D102" t="s">
-        <v>409</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>427</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>145</v>
@@ -4904,16 +5312,16 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B103" t="s">
         <v>428</v>
       </c>
-      <c r="B103" t="s">
+      <c r="D103" t="s">
         <v>429</v>
       </c>
-      <c r="D103" t="s">
+      <c r="F103" s="1" t="s">
         <v>430</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>431</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>293</v>
@@ -4924,16 +5332,16 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B104" t="s">
         <v>432</v>
       </c>
-      <c r="B104" t="s">
+      <c r="D104" t="s">
         <v>433</v>
       </c>
-      <c r="D104" t="s">
+      <c r="F104" s="1" t="s">
         <v>434</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>435</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>37</v>
@@ -4944,16 +5352,16 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B105" t="s">
         <v>436</v>
       </c>
-      <c r="B105" t="s">
+      <c r="D105" t="s">
         <v>437</v>
       </c>
-      <c r="D105" t="s">
+      <c r="F105" s="1" t="s">
         <v>438</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>439</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>145</v>
@@ -4964,16 +5372,16 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B106" t="s">
         <v>440</v>
       </c>
-      <c r="B106" t="s">
+      <c r="D106" t="s">
         <v>441</v>
       </c>
-      <c r="D106" t="s">
+      <c r="F106" s="1" t="s">
         <v>442</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>443</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>14</v>
@@ -4984,19 +5392,19 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B107" t="s">
         <v>105</v>
       </c>
       <c r="D107" t="s">
+        <v>444</v>
+      </c>
+      <c r="F107" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="F107" s="1" t="s">
+      <c r="G107" s="1" t="s">
         <v>446</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>30</v>
@@ -5004,16 +5412,16 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B108" t="s">
         <v>217</v>
       </c>
       <c r="D108" t="s">
+        <v>448</v>
+      </c>
+      <c r="F108" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>450</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>125</v>
@@ -5024,16 +5432,16 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B109" t="s">
         <v>451</v>
       </c>
-      <c r="B109" t="s">
+      <c r="D109" t="s">
         <v>452</v>
       </c>
-      <c r="D109" t="s">
+      <c r="F109" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>454</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>31</v>
@@ -5050,16 +5458,16 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
+        <v>454</v>
+      </c>
+      <c r="B110" t="s">
+        <v>432</v>
+      </c>
+      <c r="D110" t="s">
         <v>455</v>
       </c>
-      <c r="B110" t="s">
-        <v>433</v>
-      </c>
-      <c r="D110" t="s">
+      <c r="F110" s="1" t="s">
         <v>456</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>457</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>46</v>
@@ -5076,16 +5484,16 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B111" t="s">
         <v>105</v>
       </c>
       <c r="D111" t="s">
+        <v>458</v>
+      </c>
+      <c r="F111" s="1" t="s">
         <v>459</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>460</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>31</v>
@@ -5096,16 +5504,16 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B112" t="s">
         <v>461</v>
       </c>
-      <c r="B112" t="s">
+      <c r="D112" t="s">
         <v>462</v>
       </c>
-      <c r="D112" t="s">
+      <c r="F112" s="1" t="s">
         <v>463</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>464</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>24</v>
@@ -5114,35 +5522,35 @@
         <v>85</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B113" t="s">
         <v>184</v>
       </c>
       <c r="D113" t="s">
+        <v>465</v>
+      </c>
+      <c r="F113" s="1" t="s">
         <v>466</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>467</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
+        <v>467</v>
+      </c>
+      <c r="B114" t="s">
+        <v>461</v>
+      </c>
+      <c r="D114" t="s">
         <v>468</v>
       </c>
-      <c r="B114" t="s">
-        <v>462</v>
-      </c>
-      <c r="D114" t="s">
-        <v>469</v>
-      </c>
       <c r="F114" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>46</v>
@@ -5154,21 +5562,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B115" t="s">
         <v>33</v>
       </c>
       <c r="D115" t="s">
+        <v>470</v>
+      </c>
+      <c r="E115" t="s">
         <v>471</v>
       </c>
-      <c r="E115" t="s">
+      <c r="F115" s="1" t="s">
         <v>472</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>473</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>75</v>
@@ -5180,21 +5588,21 @@
         <v>69</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
+        <v>473</v>
+      </c>
+      <c r="B116" t="s">
         <v>474</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" t="s">
         <v>475</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>476</v>
       </c>
-      <c r="D116" t="s">
+      <c r="F116" s="1" t="s">
         <v>477</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>478</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>69</v>
@@ -5206,18 +5614,18 @@
         <v>293</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B117" t="s">
         <v>479</v>
       </c>
-      <c r="B117" t="s">
+      <c r="D117" t="s">
         <v>480</v>
       </c>
-      <c r="D117" t="s">
+      <c r="F117" s="1" t="s">
         <v>481</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>482</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>75</v>
@@ -5226,12 +5634,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B118" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D118" t="s">
         <v>300</v>
@@ -5245,13 +5653,10 @@
       <c r="H118" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J118" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B119" t="s">
         <v>82</v>
@@ -5260,7 +5665,7 @@
         <v>83</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>37</v>
@@ -5269,18 +5674,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B120" t="s">
         <v>486</v>
       </c>
-      <c r="B120" t="s">
+      <c r="D120" t="s">
         <v>487</v>
       </c>
-      <c r="D120" t="s">
+      <c r="F120" s="1" t="s">
         <v>488</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>489</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>24</v>
@@ -5288,22 +5693,19 @@
       <c r="H120" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J120" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B121" t="s">
         <v>33</v>
       </c>
       <c r="D121" t="s">
+        <v>490</v>
+      </c>
+      <c r="F121" s="1" t="s">
         <v>491</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>492</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>37</v>
@@ -5312,12 +5714,12 @@
         <v>182</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B122" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D122" t="s">
         <v>300</v>
@@ -5331,22 +5733,19 @@
       <c r="H122" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J122" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B123" t="s">
         <v>217</v>
       </c>
       <c r="D123" t="s">
+        <v>494</v>
+      </c>
+      <c r="F123" s="1" t="s">
         <v>495</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>496</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>31</v>
@@ -5355,18 +5754,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B124" t="s">
         <v>497</v>
       </c>
-      <c r="B124" t="s">
+      <c r="D124" t="s">
         <v>498</v>
       </c>
-      <c r="D124" t="s">
+      <c r="F124" s="1" t="s">
         <v>499</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>500</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>293</v>
@@ -5375,44 +5774,44 @@
         <v>239</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B125" t="s">
         <v>501</v>
       </c>
-      <c r="B125" t="s">
+      <c r="D125" t="s">
         <v>502</v>
       </c>
-      <c r="D125" t="s">
+      <c r="F125" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="F125" s="1" t="s">
+      <c r="G125" s="1" t="s">
         <v>504</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>505</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>94</v>
       </c>
       <c r="I125" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
         <v>505</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A126" s="2" t="s">
-        <v>506</v>
       </c>
       <c r="B126" t="s">
         <v>33</v>
       </c>
       <c r="D126" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F126" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="G126" s="1" t="s">
         <v>507</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>508</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>64</v>
@@ -5421,21 +5820,21 @@
         <v>63</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B127" t="s">
+        <v>398</v>
+      </c>
+      <c r="D127" t="s">
         <v>509</v>
       </c>
-      <c r="B127" t="s">
-        <v>399</v>
-      </c>
-      <c r="D127" t="s">
+      <c r="F127" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="F127" s="1" t="s">
+      <c r="G127" s="1" t="s">
         <v>511</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>512</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>64</v>
@@ -5444,18 +5843,18 @@
         <v>64</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B128" t="s">
         <v>513</v>
       </c>
-      <c r="B128" t="s">
+      <c r="D128" t="s">
         <v>514</v>
       </c>
-      <c r="D128" t="s">
+      <c r="F128" s="1" t="s">
         <v>515</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>516</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>53</v>
@@ -5466,16 +5865,16 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B129" t="s">
         <v>72</v>
       </c>
       <c r="D129" t="s">
+        <v>517</v>
+      </c>
+      <c r="F129" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>519</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>75</v>
@@ -5486,7 +5885,7 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B130" t="s">
         <v>33</v>
@@ -5495,7 +5894,7 @@
         <v>34</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>85</v>
@@ -5506,7 +5905,7 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B131" t="s">
         <v>26</v>
@@ -5515,7 +5914,7 @@
         <v>83</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>37</v>
@@ -5526,16 +5925,16 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B132" t="s">
         <v>524</v>
       </c>
-      <c r="B132" t="s">
+      <c r="D132" t="s">
         <v>525</v>
       </c>
-      <c r="D132" t="s">
+      <c r="F132" s="1" t="s">
         <v>526</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>527</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>46</v>
@@ -5549,16 +5948,16 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
+        <v>527</v>
+      </c>
+      <c r="B133" t="s">
         <v>528</v>
       </c>
-      <c r="B133" t="s">
+      <c r="D133" t="s">
         <v>529</v>
       </c>
-      <c r="D133" t="s">
+      <c r="F133" s="1" t="s">
         <v>530</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>531</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>31</v>
@@ -5572,16 +5971,16 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B134" t="s">
         <v>26</v>
       </c>
       <c r="D134" t="s">
+        <v>532</v>
+      </c>
+      <c r="F134" s="1" t="s">
         <v>533</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>534</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>63</v>
@@ -5595,16 +5994,16 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
+        <v>534</v>
+      </c>
+      <c r="B135" t="s">
+        <v>474</v>
+      </c>
+      <c r="D135" t="s">
         <v>535</v>
       </c>
-      <c r="B135" t="s">
-        <v>475</v>
-      </c>
-      <c r="D135" t="s">
+      <c r="F135" s="1" t="s">
         <v>536</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>537</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>31</v>
@@ -5618,16 +6017,16 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B136" t="s">
         <v>538</v>
       </c>
-      <c r="B136" t="s">
+      <c r="D136" t="s">
         <v>539</v>
       </c>
-      <c r="D136" t="s">
+      <c r="F136" s="1" t="s">
         <v>540</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>541</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>145</v>
@@ -5641,19 +6040,19 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
+        <v>541</v>
+      </c>
+      <c r="B137" t="s">
+        <v>407</v>
+      </c>
+      <c r="D137" t="s">
         <v>542</v>
       </c>
-      <c r="B137" t="s">
-        <v>408</v>
-      </c>
-      <c r="D137" t="s">
+      <c r="F137" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="F137" s="1" t="s">
+      <c r="G137" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="G137" s="1" t="s">
-        <v>545</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>144</v>
@@ -5664,16 +6063,16 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B138" t="s">
         <v>217</v>
       </c>
       <c r="D138" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>248</v>
@@ -5687,16 +6086,16 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
+        <v>547</v>
+      </c>
+      <c r="B139" t="s">
         <v>548</v>
       </c>
-      <c r="B139" t="s">
+      <c r="D139" t="s">
         <v>549</v>
       </c>
-      <c r="D139" t="s">
+      <c r="F139" s="1" t="s">
         <v>550</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>551</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>207</v>
@@ -5707,16 +6106,16 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
+        <v>551</v>
+      </c>
+      <c r="B140" t="s">
         <v>552</v>
       </c>
-      <c r="B140" t="s">
+      <c r="D140" t="s">
         <v>553</v>
       </c>
-      <c r="D140" t="s">
+      <c r="F140" s="1" t="s">
         <v>554</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>555</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>211</v>
@@ -5727,16 +6126,16 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B141" t="s">
+        <v>497</v>
+      </c>
+      <c r="D141" t="s">
         <v>556</v>
       </c>
-      <c r="B141" t="s">
-        <v>498</v>
-      </c>
-      <c r="D141" t="s">
+      <c r="F141" s="1" t="s">
         <v>557</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>558</v>
       </c>
       <c r="G141" s="1" t="s">
         <v>37</v>
@@ -5750,19 +6149,19 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B142" t="s">
         <v>105</v>
       </c>
       <c r="D142" t="s">
+        <v>559</v>
+      </c>
+      <c r="F142" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="F142" s="1" t="s">
+      <c r="G142" s="1" t="s">
         <v>561</v>
-      </c>
-      <c r="G142" s="1" t="s">
-        <v>562</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>24</v>
@@ -5773,19 +6172,19 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B143" t="s">
         <v>112</v>
       </c>
       <c r="D143" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F143" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="G143" s="1" t="s">
         <v>564</v>
-      </c>
-      <c r="G143" s="1" t="s">
-        <v>565</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>30</v>
@@ -5793,16 +6192,16 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B144" t="s">
         <v>33</v>
       </c>
       <c r="D144" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G144" s="1" t="s">
         <v>279</v>
@@ -5813,16 +6212,16 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B145" t="s">
         <v>105</v>
       </c>
       <c r="D145" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>31</v>
@@ -5833,16 +6232,16 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
+        <v>569</v>
+      </c>
+      <c r="B146" t="s">
+        <v>401</v>
+      </c>
+      <c r="D146" t="s">
         <v>570</v>
       </c>
-      <c r="B146" t="s">
-        <v>402</v>
-      </c>
-      <c r="D146" t="s">
+      <c r="F146" s="1" t="s">
         <v>571</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>572</v>
       </c>
       <c r="G146" s="1" t="s">
         <v>229</v>
@@ -5853,16 +6252,16 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
+        <v>572</v>
+      </c>
+      <c r="B147" t="s">
         <v>573</v>
-      </c>
-      <c r="B147" t="s">
-        <v>574</v>
       </c>
       <c r="D147" t="s">
         <v>250</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>64</v>
@@ -5873,16 +6272,16 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B148" t="s">
         <v>576</v>
       </c>
-      <c r="B148" t="s">
+      <c r="D148" t="s">
+        <v>377</v>
+      </c>
+      <c r="F148" s="1" t="s">
         <v>577</v>
-      </c>
-      <c r="D148" t="s">
-        <v>378</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>578</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>144</v>
@@ -5893,16 +6292,16 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B149" t="s">
         <v>579</v>
       </c>
-      <c r="B149" t="s">
+      <c r="D149" t="s">
         <v>580</v>
       </c>
-      <c r="D149" t="s">
+      <c r="F149" s="1" t="s">
         <v>581</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>582</v>
       </c>
       <c r="G149" s="1" t="s">
         <v>63</v>
@@ -5913,16 +6312,16 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B150" t="s">
+        <v>407</v>
+      </c>
+      <c r="D150" t="s">
         <v>583</v>
       </c>
-      <c r="B150" t="s">
-        <v>408</v>
-      </c>
-      <c r="D150" t="s">
+      <c r="F150" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>585</v>
       </c>
       <c r="G150" s="1" t="s">
         <v>99</v>
@@ -5933,16 +6332,16 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B151" t="s">
         <v>105</v>
       </c>
       <c r="D151" t="s">
+        <v>586</v>
+      </c>
+      <c r="F151" s="1" t="s">
         <v>587</v>
-      </c>
-      <c r="F151" s="1" t="s">
-        <v>588</v>
       </c>
       <c r="G151" s="1" t="s">
         <v>145</v>
@@ -5953,16 +6352,16 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B152" t="s">
         <v>589</v>
       </c>
-      <c r="B152" t="s">
+      <c r="D152" t="s">
         <v>590</v>
       </c>
-      <c r="D152" t="s">
+      <c r="F152" s="1" t="s">
         <v>591</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>592</v>
       </c>
       <c r="G152" s="1" t="s">
         <v>24</v>
@@ -5973,16 +6372,16 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B153" t="s">
         <v>105</v>
       </c>
       <c r="D153" t="s">
+        <v>593</v>
+      </c>
+      <c r="F153" s="1" t="s">
         <v>594</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>595</v>
       </c>
       <c r="G153" s="1" t="s">
         <v>37</v>
@@ -5993,19 +6392,19 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B154" t="s">
         <v>169</v>
       </c>
       <c r="D154" t="s">
+        <v>596</v>
+      </c>
+      <c r="F154" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="F154" s="1" t="s">
+      <c r="G154" s="1" t="s">
         <v>598</v>
-      </c>
-      <c r="G154" s="1" t="s">
-        <v>599</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>46</v>
@@ -6013,19 +6412,19 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
+        <v>599</v>
+      </c>
+      <c r="B155" t="s">
+        <v>407</v>
+      </c>
+      <c r="D155" t="s">
         <v>600</v>
       </c>
-      <c r="B155" t="s">
-        <v>408</v>
-      </c>
-      <c r="D155" t="s">
+      <c r="F155" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="F155" s="1" t="s">
+      <c r="G155" s="1" t="s">
         <v>602</v>
-      </c>
-      <c r="G155" s="1" t="s">
-        <v>603</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>94</v>
@@ -6033,16 +6432,16 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="B156" t="s">
         <v>604</v>
       </c>
-      <c r="B156" t="s">
+      <c r="D156" t="s">
         <v>605</v>
       </c>
-      <c r="D156" t="s">
+      <c r="F156" s="1" t="s">
         <v>606</v>
-      </c>
-      <c r="F156" s="1" t="s">
-        <v>607</v>
       </c>
       <c r="G156" s="1" t="s">
         <v>181</v>
@@ -6053,16 +6452,16 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
+        <v>607</v>
+      </c>
+      <c r="B157" t="s">
         <v>608</v>
       </c>
-      <c r="B157" t="s">
+      <c r="D157" t="s">
         <v>609</v>
       </c>
-      <c r="D157" t="s">
+      <c r="F157" s="1" t="s">
         <v>610</v>
-      </c>
-      <c r="F157" s="1" t="s">
-        <v>611</v>
       </c>
       <c r="G157" s="1" t="s">
         <v>145</v>
@@ -6073,16 +6472,16 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
+        <v>611</v>
+      </c>
+      <c r="B158" t="s">
         <v>612</v>
       </c>
-      <c r="B158" t="s">
+      <c r="D158" t="s">
         <v>613</v>
       </c>
-      <c r="D158" t="s">
+      <c r="F158" s="1" t="s">
         <v>614</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>615</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>85</v>
@@ -6096,16 +6495,16 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B159" t="s">
         <v>87</v>
       </c>
       <c r="D159" t="s">
+        <v>616</v>
+      </c>
+      <c r="F159" s="1" t="s">
         <v>617</v>
-      </c>
-      <c r="F159" s="1" t="s">
-        <v>618</v>
       </c>
       <c r="G159" s="1" t="s">
         <v>37</v>
@@ -6116,13 +6515,13 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
+        <v>618</v>
+      </c>
+      <c r="B160" t="s">
         <v>619</v>
       </c>
-      <c r="B160" t="s">
+      <c r="F160" s="1" t="s">
         <v>620</v>
-      </c>
-      <c r="F160" s="1" t="s">
-        <v>621</v>
       </c>
       <c r="G160" s="1" t="s">
         <v>145</v>
@@ -6133,13 +6532,13 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
+        <v>621</v>
+      </c>
+      <c r="B161" t="s">
         <v>622</v>
       </c>
-      <c r="B161" t="s">
-        <v>623</v>
-      </c>
-      <c r="F161" s="2">
-        <v>36578932</v>
+      <c r="F161" s="4" t="s">
+        <v>866</v>
       </c>
       <c r="G161" s="1" t="s">
         <v>145</v>
@@ -6150,16 +6549,16 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B162" t="s">
         <v>112</v>
       </c>
       <c r="D162" t="s">
+        <v>624</v>
+      </c>
+      <c r="F162" s="1" t="s">
         <v>625</v>
-      </c>
-      <c r="F162" s="1" t="s">
-        <v>626</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>145</v>
@@ -6170,16 +6569,16 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B163" t="s">
         <v>112</v>
       </c>
       <c r="D163" t="s">
+        <v>627</v>
+      </c>
+      <c r="F163" s="1" t="s">
         <v>628</v>
-      </c>
-      <c r="F163" s="1" t="s">
-        <v>629</v>
       </c>
       <c r="G163" s="1" t="s">
         <v>223</v>
@@ -6190,16 +6589,16 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
+        <v>629</v>
+      </c>
+      <c r="B164" t="s">
         <v>630</v>
       </c>
-      <c r="B164" t="s">
+      <c r="D164" t="s">
         <v>631</v>
       </c>
-      <c r="D164" t="s">
+      <c r="F164" s="1" t="s">
         <v>632</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>633</v>
       </c>
       <c r="G164" s="1" t="s">
         <v>63</v>
@@ -6210,16 +6609,16 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
+        <v>633</v>
+      </c>
+      <c r="B165" t="s">
+        <v>479</v>
+      </c>
+      <c r="D165" t="s">
+        <v>596</v>
+      </c>
+      <c r="F165" s="1" t="s">
         <v>634</v>
-      </c>
-      <c r="B165" t="s">
-        <v>480</v>
-      </c>
-      <c r="D165" t="s">
-        <v>597</v>
-      </c>
-      <c r="F165" s="1" t="s">
-        <v>635</v>
       </c>
       <c r="G165" s="1" t="s">
         <v>31</v>
@@ -6230,16 +6629,16 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="B166" t="s">
         <v>636</v>
       </c>
-      <c r="B166" t="s">
+      <c r="D166" t="s">
         <v>637</v>
       </c>
-      <c r="D166" t="s">
+      <c r="F166" s="1" t="s">
         <v>638</v>
-      </c>
-      <c r="F166" s="1" t="s">
-        <v>639</v>
       </c>
       <c r="G166" s="1" t="s">
         <v>279</v>
@@ -6253,19 +6652,19 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
+        <v>639</v>
+      </c>
+      <c r="B167" t="s">
         <v>640</v>
       </c>
-      <c r="B167" t="s">
+      <c r="D167" t="s">
         <v>641</v>
       </c>
-      <c r="D167" t="s">
+      <c r="F167" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="F167" s="1" t="s">
-        <v>643</v>
-      </c>
       <c r="G167" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H167" s="1" t="s">
         <v>94</v>
@@ -6276,10 +6675,10 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
+        <v>643</v>
+      </c>
+      <c r="B168" t="s">
         <v>644</v>
-      </c>
-      <c r="B168" t="s">
-        <v>645</v>
       </c>
       <c r="D168" t="s">
         <v>27</v>
@@ -6299,19 +6698,19 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
+        <v>645</v>
+      </c>
+      <c r="B169" t="s">
         <v>646</v>
       </c>
-      <c r="B169" t="s">
+      <c r="D169" t="s">
         <v>647</v>
       </c>
-      <c r="D169" t="s">
+      <c r="F169" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="F169" s="1" t="s">
-        <v>649</v>
-      </c>
       <c r="G169" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H169" s="1" t="s">
         <v>46</v>
@@ -6322,16 +6721,16 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
+        <v>649</v>
+      </c>
+      <c r="B170" t="s">
+        <v>501</v>
+      </c>
+      <c r="D170" t="s">
         <v>650</v>
       </c>
-      <c r="B170" t="s">
-        <v>502</v>
-      </c>
-      <c r="D170" t="s">
+      <c r="F170" s="1" t="s">
         <v>651</v>
-      </c>
-      <c r="F170" s="1" t="s">
-        <v>652</v>
       </c>
       <c r="G170" s="1" t="s">
         <v>14</v>
@@ -6342,16 +6741,16 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B171" t="s">
         <v>169</v>
       </c>
       <c r="D171" t="s">
+        <v>653</v>
+      </c>
+      <c r="F171" s="1" t="s">
         <v>654</v>
-      </c>
-      <c r="F171" s="1" t="s">
-        <v>655</v>
       </c>
       <c r="G171" s="1" t="s">
         <v>37</v>
@@ -6362,16 +6761,16 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
+        <v>655</v>
+      </c>
+      <c r="B172" t="s">
         <v>656</v>
       </c>
-      <c r="B172" t="s">
+      <c r="D172" t="s">
         <v>657</v>
       </c>
-      <c r="D172" t="s">
+      <c r="F172" s="1" t="s">
         <v>658</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>659</v>
       </c>
       <c r="G172" s="1" t="s">
         <v>37</v>
@@ -6382,16 +6781,16 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
+        <v>659</v>
+      </c>
+      <c r="B173" t="s">
+        <v>656</v>
+      </c>
+      <c r="D173" t="s">
+        <v>657</v>
+      </c>
+      <c r="F173" s="1" t="s">
         <v>660</v>
-      </c>
-      <c r="B173" t="s">
-        <v>657</v>
-      </c>
-      <c r="D173" t="s">
-        <v>658</v>
-      </c>
-      <c r="F173" s="1" t="s">
-        <v>661</v>
       </c>
       <c r="G173" s="1" t="s">
         <v>229</v>
@@ -6402,16 +6801,16 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
+        <v>661</v>
+      </c>
+      <c r="B174" t="s">
+        <v>630</v>
+      </c>
+      <c r="D174" t="s">
         <v>662</v>
       </c>
-      <c r="B174" t="s">
-        <v>631</v>
-      </c>
-      <c r="D174" t="s">
+      <c r="F174" s="1" t="s">
         <v>663</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>664</v>
       </c>
       <c r="G174" s="1" t="s">
         <v>177</v>
@@ -6425,16 +6824,16 @@
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B175" t="s">
         <v>198</v>
       </c>
       <c r="D175" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G175" s="1" t="s">
         <v>177</v>
@@ -6448,16 +6847,16 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B176" t="s">
         <v>217</v>
       </c>
       <c r="D176" t="s">
+        <v>667</v>
+      </c>
+      <c r="F176" s="1" t="s">
         <v>668</v>
-      </c>
-      <c r="F176" s="1" t="s">
-        <v>669</v>
       </c>
       <c r="G176" s="1" t="s">
         <v>37</v>
@@ -6465,19 +6864,19 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="B177" t="s">
         <v>670</v>
       </c>
-      <c r="B177" t="s">
+      <c r="D177" t="s">
         <v>671</v>
       </c>
-      <c r="D177" t="s">
+      <c r="F177" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="F177" s="1" t="s">
+      <c r="G177" s="1" t="s">
         <v>673</v>
-      </c>
-      <c r="G177" s="1" t="s">
-        <v>674</v>
       </c>
       <c r="H177" s="1" t="s">
         <v>37</v>
@@ -6488,19 +6887,19 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B178" t="s">
+        <v>670</v>
+      </c>
+      <c r="D178" t="s">
         <v>671</v>
       </c>
-      <c r="D178" t="s">
+      <c r="F178" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="F178" s="1" t="s">
+      <c r="G178" s="1" t="s">
         <v>673</v>
-      </c>
-      <c r="G178" s="1" t="s">
-        <v>674</v>
       </c>
       <c r="H178" s="1" t="s">
         <v>37</v>
@@ -6511,16 +6910,16 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="B179" t="s">
         <v>676</v>
       </c>
-      <c r="B179" t="s">
+      <c r="D179" t="s">
         <v>677</v>
       </c>
-      <c r="D179" t="s">
-        <v>678</v>
-      </c>
       <c r="F179" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G179" s="1" t="s">
         <v>69</v>
@@ -6534,19 +6933,19 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
+        <v>678</v>
+      </c>
+      <c r="B180" t="s">
         <v>679</v>
       </c>
-      <c r="B180" t="s">
+      <c r="D180" t="s">
         <v>680</v>
       </c>
-      <c r="D180" t="s">
+      <c r="E180" t="s">
         <v>681</v>
       </c>
-      <c r="E180" t="s">
+      <c r="F180" s="1" t="s">
         <v>682</v>
-      </c>
-      <c r="F180" s="1" t="s">
-        <v>683</v>
       </c>
       <c r="G180" s="1" t="s">
         <v>37</v>
@@ -6560,16 +6959,16 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="B181" t="s">
         <v>684</v>
       </c>
-      <c r="B181" t="s">
+      <c r="D181" t="s">
         <v>685</v>
       </c>
-      <c r="D181" t="s">
+      <c r="F181" s="1" t="s">
         <v>686</v>
-      </c>
-      <c r="F181" s="1" t="s">
-        <v>687</v>
       </c>
       <c r="G181" s="1" t="s">
         <v>31</v>
@@ -6580,16 +6979,16 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B182" t="s">
         <v>688</v>
       </c>
-      <c r="B182" t="s">
+      <c r="D182" t="s">
+        <v>590</v>
+      </c>
+      <c r="F182" s="1" t="s">
         <v>689</v>
-      </c>
-      <c r="D182" t="s">
-        <v>591</v>
-      </c>
-      <c r="F182" s="1" t="s">
-        <v>690</v>
       </c>
       <c r="G182" s="1" t="s">
         <v>63</v>
@@ -6600,19 +6999,19 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B183" t="s">
         <v>33</v>
       </c>
       <c r="D183" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F183" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="G183" s="1" t="s">
         <v>692</v>
-      </c>
-      <c r="G183" s="1" t="s">
-        <v>693</v>
       </c>
       <c r="H183" s="1" t="s">
         <v>144</v>
@@ -6620,19 +7019,19 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
+        <v>693</v>
+      </c>
+      <c r="B184" t="s">
         <v>694</v>
       </c>
-      <c r="B184" t="s">
+      <c r="D184" t="s">
         <v>695</v>
       </c>
-      <c r="D184" t="s">
+      <c r="F184" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="F184" s="1" t="s">
+      <c r="G184" s="1" t="s">
         <v>697</v>
-      </c>
-      <c r="G184" s="1" t="s">
-        <v>698</v>
       </c>
       <c r="H184" s="1" t="s">
         <v>229</v>
@@ -6640,16 +7039,16 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
+        <v>698</v>
+      </c>
+      <c r="B185" t="s">
         <v>699</v>
       </c>
-      <c r="B185" t="s">
+      <c r="D185" t="s">
         <v>700</v>
       </c>
-      <c r="D185" t="s">
+      <c r="F185" s="1" t="s">
         <v>701</v>
-      </c>
-      <c r="F185" s="1" t="s">
-        <v>702</v>
       </c>
       <c r="G185" s="1" t="s">
         <v>46</v>
@@ -6657,16 +7056,16 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="B186" t="s">
         <v>703</v>
       </c>
-      <c r="B186" t="s">
+      <c r="D186" t="s">
         <v>704</v>
       </c>
-      <c r="D186" t="s">
+      <c r="F186" s="1" t="s">
         <v>705</v>
-      </c>
-      <c r="F186" s="1" t="s">
-        <v>706</v>
       </c>
       <c r="G186" s="1" t="s">
         <v>69</v>
@@ -6674,7 +7073,7 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B187" t="s">
         <v>82</v>
@@ -6683,7 +7082,7 @@
         <v>106</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G187" s="1" t="s">
         <v>75</v>
@@ -6691,16 +7090,16 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B188" t="s">
         <v>33</v>
       </c>
       <c r="D188" t="s">
+        <v>709</v>
+      </c>
+      <c r="F188" s="1" t="s">
         <v>710</v>
-      </c>
-      <c r="F188" s="1" t="s">
-        <v>711</v>
       </c>
       <c r="G188" s="1" t="s">
         <v>75</v>
@@ -6711,16 +7110,16 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
+        <v>711</v>
+      </c>
+      <c r="B189" t="s">
         <v>712</v>
       </c>
-      <c r="B189" t="s">
+      <c r="D189" t="s">
         <v>713</v>
       </c>
-      <c r="D189" t="s">
+      <c r="F189" s="1" t="s">
         <v>714</v>
-      </c>
-      <c r="F189" s="1" t="s">
-        <v>715</v>
       </c>
       <c r="G189" s="1" t="s">
         <v>279</v>
@@ -6731,16 +7130,16 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
+        <v>715</v>
+      </c>
+      <c r="B190" t="s">
         <v>716</v>
       </c>
-      <c r="B190" t="s">
+      <c r="D190" t="s">
         <v>717</v>
       </c>
-      <c r="D190" t="s">
+      <c r="F190" s="1" t="s">
         <v>718</v>
-      </c>
-      <c r="F190" s="1" t="s">
-        <v>719</v>
       </c>
       <c r="G190" s="1" t="s">
         <v>120</v>
@@ -6751,16 +7150,16 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B191" t="s">
         <v>105</v>
       </c>
       <c r="D191" t="s">
+        <v>720</v>
+      </c>
+      <c r="F191" s="1" t="s">
         <v>721</v>
-      </c>
-      <c r="F191" s="1" t="s">
-        <v>722</v>
       </c>
       <c r="G191" s="1" t="s">
         <v>63</v>
@@ -6771,16 +7170,16 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B192" t="s">
         <v>72</v>
       </c>
       <c r="D192" t="s">
+        <v>723</v>
+      </c>
+      <c r="F192" s="1" t="s">
         <v>724</v>
-      </c>
-      <c r="F192" s="1" t="s">
-        <v>725</v>
       </c>
       <c r="G192" s="1" t="s">
         <v>14</v>
@@ -6789,18 +7188,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
+        <v>725</v>
+      </c>
+      <c r="B193" t="s">
         <v>726</v>
       </c>
-      <c r="B193" t="s">
+      <c r="D193" t="s">
         <v>727</v>
       </c>
-      <c r="D193" t="s">
+      <c r="F193" s="1" t="s">
         <v>728</v>
-      </c>
-      <c r="F193" s="1" t="s">
-        <v>729</v>
       </c>
       <c r="G193" s="1" t="s">
         <v>187</v>
@@ -6810,6 +7209,923 @@
       </c>
       <c r="I193" s="1" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>729</v>
+      </c>
+      <c r="B194" t="s">
+        <v>730</v>
+      </c>
+      <c r="D194" t="s">
+        <v>731</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H194" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="J194" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>733</v>
+      </c>
+      <c r="B195" t="s">
+        <v>730</v>
+      </c>
+      <c r="D195" t="s">
+        <v>731</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H195" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J195" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>734</v>
+      </c>
+      <c r="B196" t="s">
+        <v>735</v>
+      </c>
+      <c r="D196" t="s">
+        <v>736</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="H196" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I196" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>740</v>
+      </c>
+      <c r="B197" t="s">
+        <v>738</v>
+      </c>
+      <c r="D197" t="s">
+        <v>250</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="G197" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H197" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A198" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="B198" t="s">
+        <v>741</v>
+      </c>
+      <c r="D198" t="s">
+        <v>742</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H198" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J198" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A199" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="B199" t="s">
+        <v>112</v>
+      </c>
+      <c r="D199" t="s">
+        <v>745</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="G199" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H199" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I199" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>754</v>
+      </c>
+      <c r="B200" t="s">
+        <v>748</v>
+      </c>
+      <c r="D200" t="s">
+        <v>749</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H200" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I200" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J200" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A201" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="B201" t="s">
+        <v>751</v>
+      </c>
+      <c r="D201" t="s">
+        <v>752</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="G201" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H201" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J201" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A202" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="B202" t="s">
+        <v>26</v>
+      </c>
+      <c r="D202" t="s">
+        <v>83</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H202" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>757</v>
+      </c>
+      <c r="B203" t="s">
+        <v>579</v>
+      </c>
+      <c r="D203" t="s">
+        <v>759</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="G203" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H203" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I203" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>761</v>
+      </c>
+      <c r="B204" t="s">
+        <v>762</v>
+      </c>
+      <c r="D204" t="s">
+        <v>313</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="G204" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="H204" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I204" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>765</v>
+      </c>
+      <c r="B205" t="s">
+        <v>766</v>
+      </c>
+      <c r="D205" t="s">
+        <v>767</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="G205" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H205" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I205" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>769</v>
+      </c>
+      <c r="B206" t="s">
+        <v>770</v>
+      </c>
+      <c r="D206" t="s">
+        <v>771</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G206" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H206" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I206" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A207" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="B207" t="s">
+        <v>33</v>
+      </c>
+      <c r="D207" t="s">
+        <v>34</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H207" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I207" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>774</v>
+      </c>
+      <c r="B208" t="s">
+        <v>579</v>
+      </c>
+      <c r="D208" t="s">
+        <v>775</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H208" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I208" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>777</v>
+      </c>
+      <c r="B209" t="s">
+        <v>778</v>
+      </c>
+      <c r="D209" t="s">
+        <v>779</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H209" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I209" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>781</v>
+      </c>
+      <c r="B210" t="s">
+        <v>644</v>
+      </c>
+      <c r="D210" t="s">
+        <v>782</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H210" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I210" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>784</v>
+      </c>
+      <c r="B211" t="s">
+        <v>778</v>
+      </c>
+      <c r="D211" t="s">
+        <v>785</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H211" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I211" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>787</v>
+      </c>
+      <c r="B212" t="s">
+        <v>169</v>
+      </c>
+      <c r="D212" t="s">
+        <v>704</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="H212" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I212" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>790</v>
+      </c>
+      <c r="B213" t="s">
+        <v>791</v>
+      </c>
+      <c r="D213" t="s">
+        <v>792</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H213" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I213" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>794</v>
+      </c>
+      <c r="B214" t="s">
+        <v>795</v>
+      </c>
+      <c r="D214" t="s">
+        <v>796</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="G214" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H214" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I214" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>798</v>
+      </c>
+      <c r="B215" t="s">
+        <v>799</v>
+      </c>
+      <c r="D215" t="s">
+        <v>596</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="G215" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="H215" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I215" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A216" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="B216" t="s">
+        <v>803</v>
+      </c>
+      <c r="D216" t="s">
+        <v>804</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="G216" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H216" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I216" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A217" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="B217" t="s">
+        <v>807</v>
+      </c>
+      <c r="D217" t="s">
+        <v>808</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="G217" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="H217" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I217" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>811</v>
+      </c>
+      <c r="B218" t="s">
+        <v>198</v>
+      </c>
+      <c r="D218" t="s">
+        <v>812</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="H218" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I218" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>815</v>
+      </c>
+      <c r="B219" t="s">
+        <v>349</v>
+      </c>
+      <c r="D219" t="s">
+        <v>816</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="G219" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="H219" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I219" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A220" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="B220" t="s">
+        <v>738</v>
+      </c>
+      <c r="D220" t="s">
+        <v>820</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="G220" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="H220" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I220" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>822</v>
+      </c>
+      <c r="B221" t="s">
+        <v>823</v>
+      </c>
+      <c r="D221" t="s">
+        <v>824</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="G221" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="H221" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I221" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>827</v>
+      </c>
+      <c r="B222" t="s">
+        <v>184</v>
+      </c>
+      <c r="D222" t="s">
+        <v>313</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="G222" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H222" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I222" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>829</v>
+      </c>
+      <c r="B223" t="s">
+        <v>105</v>
+      </c>
+      <c r="D223" t="s">
+        <v>179</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="G223" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="H223" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I223" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>831</v>
+      </c>
+      <c r="B224" t="s">
+        <v>832</v>
+      </c>
+      <c r="D224" t="s">
+        <v>833</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G224" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H224" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I224" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>834</v>
+      </c>
+      <c r="B225" t="s">
+        <v>835</v>
+      </c>
+      <c r="D225" t="s">
+        <v>836</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="G225" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="H225" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I225" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>838</v>
+      </c>
+      <c r="B226" t="s">
+        <v>839</v>
+      </c>
+      <c r="D226" t="s">
+        <v>840</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="G226" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H226" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I226" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>842</v>
+      </c>
+      <c r="B227" t="s">
+        <v>843</v>
+      </c>
+      <c r="D227" t="s">
+        <v>844</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H227" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I227" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>846</v>
+      </c>
+      <c r="B228" t="s">
+        <v>39</v>
+      </c>
+      <c r="D228" t="s">
+        <v>847</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H228" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I228" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>849</v>
+      </c>
+      <c r="B229" t="s">
+        <v>850</v>
+      </c>
+      <c r="D229" t="s">
+        <v>590</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="G229" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H229" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I229" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>852</v>
+      </c>
+      <c r="B230" t="s">
+        <v>136</v>
+      </c>
+      <c r="D230" t="s">
+        <v>853</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H230" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I230" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>855</v>
+      </c>
+      <c r="B231" t="s">
+        <v>856</v>
+      </c>
+      <c r="D231" t="s">
+        <v>277</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="G231" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="H231" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I231" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>858</v>
+      </c>
+      <c r="B232" t="s">
+        <v>16</v>
+      </c>
+      <c r="D232" t="s">
+        <v>859</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="G232" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="H232" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I232" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>862</v>
+      </c>
+      <c r="B233" t="s">
+        <v>184</v>
+      </c>
+      <c r="D233" t="s">
+        <v>863</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="G233" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="H233" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I233" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
